--- a/ColumnDescriptions.xlsx
+++ b/ColumnDescriptions.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -169,54 +169,133 @@
     <t xml:space="preserve">Census_MDC2FormFactor</t>
   </si>
   <si>
+    <t xml:space="preserve">represent the type of the computer by calculation based on some characteristics (Desktop, Notebook, Server)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_DeviceFamily</t>
   </si>
   <si>
+    <t xml:space="preserve">The OS type relevant to device (desktop or server)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_OEMNameIdentifier</t>
   </si>
   <si>
+    <t xml:space="preserve">An ID representing the name of the manufacturer assembled the computer, sells the operating system as part of the computer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_OEMModelIdentifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Probably id for a specific computer model as part of the OEM (like Dell Inspiron 5999)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_ProcessorCoreCount</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of the cores in the CPU of the computer (maybe physical or virtual)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_ProcessorManufacturerIdentifier</t>
   </si>
   <si>
+    <t xml:space="preserve">id for the manufacturer of the cpu, (mostly intel or amd)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_ProcessorModelIdentifier</t>
   </si>
   <si>
+    <t xml:space="preserve">identifier for a specific cpu model. For example i5-6200U.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_ProcessorClass</t>
   </si>
   <si>
+    <t xml:space="preserve">Ordinal fetaure, represent the class of the CPU, high-mid-low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly empty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_PrimaryDiskTotalCapacity</t>
   </si>
   <si>
+    <t xml:space="preserve">The total capacity of the primary disk of the computer (probably in MB)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_PrimaryDiskTypeName</t>
   </si>
   <si>
+    <t xml:space="preserve">Physical disk type, probably HDD or SSD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_SystemVolumeTotalCapacity</t>
   </si>
   <si>
+    <t xml:space="preserve">the total capacity of the hidden system volume inside the disk, stores important info for the OS (like restoration point)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always &lt; diskTotalCapacity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_HasOpticalDiskDrive</t>
   </si>
   <si>
+    <t xml:space="preserve">Tells if the computer has Optical Disk Drive (CD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For some reason, for most=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_TotalPhysicalRAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Amount of the RAM in MB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_ChassisTypeName</t>
   </si>
   <si>
+    <t xml:space="preserve">represent the type of the computer by calculation based on the chassis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">very correlative to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MDC2FormFactor</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Census_InternalPrimaryDiagonalDisplaySizeInInches</t>
   </si>
   <si>
+    <t xml:space="preserve">The size of the promary display screen in inches (like 21.5)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_InternalPrimaryDisplayResolutionHorizontal</t>
   </si>
   <si>
+    <t xml:space="preserve">Horizontal resolution (like 1366)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_InternalPrimaryDisplayResolutionVertical</t>
   </si>
   <si>
+    <t xml:space="preserve">Vertical resolution (like 768)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_PowerPlatformRoleName</t>
   </si>
   <si>
@@ -289,9 +368,15 @@
     <t xml:space="preserve">Census_GenuineStateName</t>
   </si>
   <si>
+    <t xml:space="preserve">Genuine status of the operating system, if the license was activated or not.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_ActivationChannel</t>
   </si>
   <si>
+    <t xml:space="preserve">The channel of activation, OEM, Retail or Volume (and subtypes)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_IsFlightingInternal</t>
   </si>
   <si>
@@ -310,9 +395,15 @@
     <t xml:space="preserve">Census_FirmwareManufacturerIdentifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Id of the manufacturer identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_FirmwareVersionIdentifier</t>
   </si>
   <si>
+    <t xml:space="preserve">id for a specific firmware</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_IsSecureBootEnabled</t>
   </si>
   <si>
@@ -325,13 +416,25 @@
     <t xml:space="preserve">Census_IsTouchEnabled</t>
   </si>
   <si>
+    <t xml:space="preserve">If there is enabled touch screen in the computer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_IsPenCapable</t>
   </si>
   <si>
+    <t xml:space="preserve">If there is pen attaced to the screen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Census_IsAlwaysOnAlwaysConnectedCapable</t>
   </si>
   <si>
+    <t xml:space="preserve">If the computer is always connected to the network (also in sleep mode), feature in newer OS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wdft_IsGamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation determines if the user of the computer is gamer</t>
   </si>
   <si>
     <t xml:space="preserve">Wdft_RegionIdentifier</t>
@@ -347,7 +450,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -368,6 +471,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -454,7 +569,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -487,6 +602,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
@@ -497,6 +620,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -581,20 +708,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C83" activeCellId="0" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="57.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="76.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="11.52"/>
   </cols>
@@ -613,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -621,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -653,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -661,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -669,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -677,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -859,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -867,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -922,138 +1049,201 @@
       <c r="B36" s="7" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B46" s="7" t="n">
         <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>1</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="8" t="n">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="8" t="n">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="8" t="n">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>1</v>
@@ -1061,7 +1251,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>1</v>
@@ -1069,7 +1259,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>1</v>
@@ -1077,24 +1267,24 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B56" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B57" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>24</v>
@@ -1102,13 +1292,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B58" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>72</v>
+      <c r="C58" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>24</v>
@@ -1116,57 +1306,57 @@
     </row>
     <row r="59" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B59" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B60" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B61" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B62" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>1</v>
@@ -1174,7 +1364,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>1</v>
@@ -1182,7 +1372,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>1</v>
@@ -1190,103 +1380,115 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="10" t="n">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="B68" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="B69" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" s="10" t="n">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="B74" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="B75" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>0</v>
@@ -1294,39 +1496,51 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B79" s="11" t="n">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="B79" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" s="11" t="n">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B80" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B81" s="11" t="n">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="B81" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82" s="8" t="n">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="B82" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B83" s="4" t="n">
         <v>1</v>
@@ -1334,17 +1548,11 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B83">
-    <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B83"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
